--- a/biology/Botanique/Griffithsia/Griffithsia.xlsx
+++ b/biology/Botanique/Griffithsia/Griffithsia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Griffithsia est un genre d’algues rouges de la famille des Wrangeliaceae, tribu des Griffithsieae.
 Le genre est nommé en 1817 par Carl Adolph Agardh en l’honneur d’Amelia Griffiths. 
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (4 février 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (4 février 2019) :
 Griffithsia aestivana C.W.Schneider &amp; C.E.Lane
 Griffithsia antarctica J.D.Hooker &amp; Harvey
 Griffithsia balara Baldock
@@ -564,7 +578,7 @@
 Griffithsia traversii (J.Agardh) Baldock
 Griffithsia venusta Yamada
 Griffithsia weber-van-bosseae Børgesen
-Selon World Register of Marine Species                               (4 février 2019)[3] :
+Selon World Register of Marine Species                               (4 février 2019) :
 Griffithsia aestivana C.W.Schneider &amp; C.E.Lane, 2007
 Griffithsia antarctica J.D.Hooker &amp; Harvey, 1847
 Griffithsia balara Baldock, 1976
@@ -638,9 +652,11 @@
           <t>Synonymies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (4 février 2019)[1], les espèces suivantes ont été mises en synonymie avec d’autres espèces :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (4 février 2019), les espèces suivantes ont été mises en synonymie avec d’autres espèces :
 Griffithsia anthericephala E.Y.Dawson = Anotrichium anthericephalum (E.Y.Dawson) Baldock
 Griffithsia arachnoidea C.Agardh = Halurus flosculosus (J.Ellis) Maggs &amp; Hommersand
 Griffithsia ardissonei Zanardini = Anotrichium furcellatum (J.Agardh) Baldock
